--- a/Suites/RMS_Base_Admin_TestSuite.xlsx
+++ b/Suites/RMS_Base_Admin_TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionDefinition" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Actions">ActionKeywords!$A$2:$A$45</definedName>
+    <definedName name="Actions">ActionKeywords!$A$2:$A$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="219">
   <si>
     <t>Transaction_Name</t>
   </si>
@@ -67,10 +67,7 @@
     <t>DataFeeder</t>
   </si>
   <si>
-    <t>TC_ValidateToggle</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>TC01_AdminFunctionality</t>
   </si>
   <si>
     <t>Field</t>
@@ -250,36 +247,192 @@
     <t>xPath</t>
   </si>
   <si>
-    <t>TC01_AdminFunctionality</t>
-  </si>
-  <si>
     <t>TS_01</t>
   </si>
   <si>
+    <t>Go to GC Commercial Inbox</t>
+  </si>
+  <si>
+    <t>executeFunctionalBlock</t>
+  </si>
+  <si>
+    <t>FB_ComGCInbox</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Move to Administration menu</t>
+  </si>
+  <si>
+    <t>mouseHover</t>
+  </si>
+  <si>
+    <t>//a[@id='ctl00_lnkAdministration']</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>Click on User Management menu</t>
+  </si>
+  <si>
+    <t>click_button</t>
+  </si>
+  <si>
+    <t>//a[@id='ctl00_lnkAdminUserManagement']</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Wait for User Management page to load</t>
+  </si>
+  <si>
+    <t>waitUntilDisplayed</t>
+  </si>
+  <si>
+    <t>//div[@class='blockUI blockMsg blockPage']</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Validate page loaded and Internal Requestor tab is available</t>
+  </si>
+  <si>
+    <t>validateElementPresent</t>
+  </si>
+  <si>
+    <t>//a[@id='ctl00_ContentPlaceHolder1_linkbuttonU1']</t>
+  </si>
+  <si>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>Validate internal requestor table is displayed</t>
+  </si>
+  <si>
+    <t>//table[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_ctl00']</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Input internal requestor email ID for search</t>
+  </si>
+  <si>
+    <t>input_text</t>
+  </si>
+  <si>
+    <t>eddie.gcp@yopmail.com</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_ctl00_ctl02_ctl02_FilterTextBox_email_address']</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>Click on select filter icon</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_ctl00_ctl02_ctl02_Filter_email_address']</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>Select Equal To filter</t>
+  </si>
+  <si>
+    <t>//div[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_rfltMenu_detached']//*[text()='EqualTo']</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Wait for result to load</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Validate search returned result record</t>
+  </si>
+  <si>
+    <t>assertText</t>
+  </si>
+  <si>
+    <t>//table[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_ctl00']//tr[@class='rgRow']//td[3]</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>Click on user first name link to navigate to profile page</t>
+  </si>
+  <si>
+    <t>//table[@id='ctl00_ContentPlaceHolder1_grdInternalUsers_ctl00']//tr[@class='rgRow']//td[2]//a</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>Wait for profile page to load</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>Wait for profile page header to be visible</t>
+  </si>
+  <si>
+    <t>waitForVisible</t>
+  </si>
+  <si>
+    <t>//span[@id='ctl00_ContentPlaceHolder1_lblHeaderEdit']</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>Validate the header text</t>
+  </si>
+  <si>
+    <t>Edit/Update Internal User</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>Save the profile page</t>
+  </si>
+  <si>
+    <t>//a[@id='ctl00_ContentPlaceHolder1_btnCreateUser']</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
     <t>Open Browser</t>
   </si>
   <si>
-    <t>executeFunctionalBlock</t>
-  </si>
-  <si>
-    <t>FB_ComGCInbox</t>
-  </si>
-  <si>
     <t>openBrowser</t>
   </si>
   <si>
-    <t>TS_02</t>
-  </si>
-  <si>
     <t>Launch application</t>
   </si>
   <si>
     <t>launchRunConfig</t>
   </si>
   <si>
-    <t>TS_03</t>
-  </si>
-  <si>
     <t>Input Username</t>
   </si>
   <si>
@@ -289,102 +442,51 @@
     <t>//input[@name='UserName']</t>
   </si>
   <si>
-    <t>TS_04</t>
-  </si>
-  <si>
     <t>Input Password</t>
   </si>
   <si>
     <t>//input[@name='Password']</t>
   </si>
   <si>
-    <t>TS_05</t>
-  </si>
-  <si>
     <t>Click on Sign In</t>
   </si>
   <si>
-    <t>click_button</t>
-  </si>
-  <si>
     <t>//button[@ng-click='vm.submitLogin(loginForm)']</t>
   </si>
   <si>
-    <t>TS_06</t>
-  </si>
-  <si>
     <t>Wait for landing page link</t>
   </si>
   <si>
     <t>waitForSeconds</t>
   </si>
   <si>
-    <t>TS_07</t>
-  </si>
-  <si>
     <t>Click on User Management</t>
   </si>
   <si>
     <t>//a[normalize-space(text()) = 'User Management']</t>
   </si>
   <si>
-    <t>TS_08</t>
-  </si>
-  <si>
     <t>Wait for next link</t>
   </si>
   <si>
-    <t>TS_09</t>
-  </si>
-  <si>
     <t>Click on Modules</t>
   </si>
   <si>
     <t>//a[normalize-space(text()) = 'Modules']</t>
   </si>
   <si>
-    <t>TS_10</t>
-  </si>
-  <si>
-    <t>TS_11</t>
-  </si>
-  <si>
     <t>Click on Grants</t>
   </si>
   <si>
     <t>//a[normalize-space(text()) = 'Grants']</t>
   </si>
   <si>
-    <t>TS_12</t>
-  </si>
-  <si>
-    <t>TS_13</t>
-  </si>
-  <si>
     <t>Click on Commercial Module</t>
   </si>
   <si>
     <t>//li[./a[normalize-space(text()) = 'Commercial Module']]//a[normalize-space(text()) = 'Commercial Module']</t>
   </si>
   <si>
-    <t>TS_14</t>
-  </si>
-  <si>
-    <t>TS_15</t>
-  </si>
-  <si>
-    <t>Click on Coordinator under Commercial Module</t>
-  </si>
-  <si>
-    <t>//li[./a[normalize-space(text()) = 'Commercial Module']]//a[normalize-space(text()) = 'Coordinator']</t>
-  </si>
-  <si>
-    <t>TS_16</t>
-  </si>
-  <si>
-    <t>TS_17</t>
-  </si>
-  <si>
     <t>Click on View Activities for My Action group</t>
   </si>
   <si>
@@ -394,19 +496,10 @@
     <t>//activity-template[.//strong[normalize-space(text()) = 'Initial Review']]//span[normalize-space(text()) = 'View Activities']</t>
   </si>
   <si>
-    <t>TS_18</t>
-  </si>
-  <si>
     <t>Wait for load</t>
   </si>
   <si>
-    <t>TS_19</t>
-  </si>
-  <si>
     <t>Wait for page visible</t>
-  </si>
-  <si>
-    <t>waitForVisible</t>
   </si>
   <si>
     <t>//span[@id='ctl00_ContentPlaceHolder1_ctlCommonInbox_lblWelcomeText']</t>
@@ -436,9 +529,6 @@
 Post Condition: If complete expected value is available as a part of actual text, then step is pass, else step and test case fail</t>
   </si>
   <si>
-    <t>assertText</t>
-  </si>
-  <si>
     <t>xPath - value of xpath for element on whose text value is to consider as actual result
 data - User defined string, which needs to be treated as expected result
 Function: Perform an assertion on the actual text value from target element and value provide in data. 
@@ -500,9 +590,6 @@
     <t>Captures screencast at particular instance of invocation. Places screencast in a location defined in config file</t>
   </si>
   <si>
-    <t>input_text</t>
-  </si>
-  <si>
     <t>Input simple text into text boxes</t>
   </si>
   <si>
@@ -543,9 +630,6 @@
 Global timeout applies, which is defined in config file</t>
   </si>
   <si>
-    <t>waitUntilDisplayed</t>
-  </si>
-  <si>
     <t>Keeps execution on hold until specified element is visible on UI. Execution will start only after the specified element disappeared.
 Currently having limitation over exception handling</t>
   </si>
@@ -566,9 +650,6 @@
   </si>
   <si>
     <t>input_randomNumber</t>
-  </si>
-  <si>
-    <t>validateElementPresent</t>
   </si>
   <si>
     <t>validateElementNotPresent</t>
@@ -663,8 +744,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -683,23 +764,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF263238"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.75"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -709,16 +783,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +800,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,8 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,14 +831,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +874,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -793,6 +889,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -800,17 +897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,13 +907,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,19 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,37 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +1005,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1029,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,31 +1095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,30 +1126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,6 +1154,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1092,7 +1206,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,54 +1241,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1175,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,143 +1265,143 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,10 +1421,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1888,16 +1982,16 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1923,7 +2017,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1973,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2005,71 +2099,71 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
       <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="45" spans="1:2">
       <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6">
         <v>125000</v>
@@ -2077,7 +2171,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6">
         <f>B9*0.15</f>
@@ -2086,15 +2180,15 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="13">
+        <v>32</v>
+      </c>
+      <c r="B11" s="18">
         <v>1200</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" ref="B12:B15" si="0">$B$11*0.25</f>
@@ -2103,7 +2197,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -2112,7 +2206,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
@@ -2121,7 +2215,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
@@ -2130,125 +2224,125 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:2">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:2">
+      <c r="A19" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:2">
+      <c r="A20" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:2">
+      <c r="A22" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:2">
+      <c r="A23" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="B23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:2">
+      <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:2">
+      <c r="A25" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:2">
+      <c r="A27" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="45" spans="1:2">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="B27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="15" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:2">
+      <c r="A28" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="B28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:2">
+      <c r="A29" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="15" t="s">
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:2">
+      <c r="A30" s="19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="15" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:2">
+      <c r="A31" s="19" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:2">
-      <c r="A31" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="B31" s="6"/>
     </row>
@@ -2284,16 +2378,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2305,16 +2399,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="33.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="26.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="65.5714285714286" customWidth="1"/>
@@ -2322,45 +2416,367 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2">
@@ -2375,10 +2791,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>[1]ActionKeywords!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="eddie.gcp@yopmail.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="eddie.gcp@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2387,10 +2807,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2404,39 +2824,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="7"/>
@@ -2444,96 +2864,96 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E7" s="7">
         <v>8</v>
@@ -2543,35 +2963,35 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
@@ -2581,35 +3001,35 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -2619,35 +3039,35 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7">
         <v>8</v>
@@ -2657,35 +3077,35 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E15" s="7">
         <v>5</v>
@@ -2695,51 +3115,51 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E17" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>120</v>
@@ -2747,45 +3167,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2878,43 +3260,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
@@ -2933,19 +3299,19 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F20">
+  <conditionalFormatting sqref="F4:F18">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>[1]ActionKeywords!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
@@ -2957,10 +3323,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2974,334 +3340,339 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="135" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="135" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="120" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="120" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="135" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B33" s="6"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="45" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="30" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="B42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="240" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="270" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="105" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="105" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>191</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
